--- a/final-reports/report/tables_and_code/Plugins-comparison.xlsx
+++ b/final-reports/report/tables_and_code/Plugins-comparison.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21601"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\MscThesis\final-reports\report\tables_and_code\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\catar\Projects\Research Projects\ThesisReport\MscThesis\final-reports\report\tables_and_code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9BDEB246-D089-48A4-810A-F70E481CDA1F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{32B907D3-A9D8-4046-B32A-EC397AFDC07B}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{DDA6DC35-3636-4575-96ED-5AF84FEF1EF2}"/>
+    <workbookView xWindow="-4545" yWindow="-16320" windowWidth="29040" windowHeight="16440" xr2:uid="{DDA6DC35-3636-4575-96ED-5AF84FEF1EF2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="37">
   <si>
     <t>Galapagos</t>
   </si>
@@ -78,18 +78,12 @@
     <t>GL</t>
   </si>
   <si>
-    <t>ALL</t>
-  </si>
-  <si>
     <t>Meta</t>
   </si>
   <si>
     <t>Visualization and Interactivity</t>
   </si>
   <si>
-    <t>Results</t>
-  </si>
-  <si>
     <t>Graphical Feedback</t>
   </si>
   <si>
@@ -127,13 +121,34 @@
   </si>
   <si>
     <t>Model</t>
+  </si>
+  <si>
+    <t>Proposed Solution</t>
+  </si>
+  <si>
+    <t>SM</t>
+  </si>
+  <si>
+    <t>-*</t>
+  </si>
+  <si>
+    <t>&gt; 1</t>
+  </si>
+  <si>
+    <t>Results Cardinality</t>
+  </si>
+  <si>
+    <t xml:space="preserve">&gt; 1 </t>
+  </si>
+  <si>
+    <t>All</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -141,16 +156,43 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.14999847407452621"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -158,17 +200,138 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -485,22 +648,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB7F154B-530C-4FAD-BC91-D6633C0426AB}">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:N25"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G18" sqref="G18"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A10" zoomScale="205" zoomScaleNormal="205" workbookViewId="0">
+      <selection activeCell="K17" sqref="K17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="2.42578125" style="1" customWidth="1"/>
     <col min="2" max="2" width="27.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="22.85546875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="10.85546875" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" customWidth="1"/>
+    <col min="4" max="4" width="10" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="5.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="17.5703125" hidden="1" customWidth="1"/>
+    <col min="10" max="10" width="7.7109375" hidden="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:13" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:14" x14ac:dyDescent="0.25">
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
       <c r="D1" s="3"/>
@@ -509,359 +676,401 @@
       <c r="G1" s="3"/>
       <c r="H1" s="3"/>
       <c r="I1" s="3"/>
-      <c r="K1" s="3"/>
+      <c r="J1" s="3"/>
       <c r="L1" s="3"/>
       <c r="M1" s="3"/>
-    </row>
-    <row r="3" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K3" s="2"/>
+      <c r="N1" s="3"/>
+    </row>
+    <row r="3" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L3" s="2"/>
-    </row>
-    <row r="4" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K4" s="2"/>
+      <c r="M3" s="2"/>
+    </row>
+    <row r="4" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L4" s="2"/>
-    </row>
-    <row r="5" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K5" s="2"/>
+      <c r="M4" s="2"/>
+    </row>
+    <row r="5" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L5" s="2"/>
-    </row>
-    <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="K6" s="2"/>
+      <c r="M5" s="2"/>
+    </row>
+    <row r="6" spans="2:14" x14ac:dyDescent="0.25">
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
-    </row>
-    <row r="7" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L7" s="2"/>
+      <c r="N6" s="2"/>
+    </row>
+    <row r="7" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M7" s="2"/>
-    </row>
-    <row r="8" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="L8" s="2"/>
+      <c r="N7" s="2"/>
+    </row>
+    <row r="8" spans="2:14" x14ac:dyDescent="0.25">
       <c r="M8" s="2"/>
-    </row>
-    <row r="13" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1" t="s">
+      <c r="N8" s="2"/>
+    </row>
+    <row r="13" spans="2:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="12"/>
+      <c r="C13" s="12"/>
+      <c r="D13" s="13" t="s">
         <v>0</v>
       </c>
-      <c r="E13" s="1" t="s">
+      <c r="E13" s="13" t="s">
         <v>1</v>
       </c>
-      <c r="F13" s="1" t="s">
+      <c r="F13" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="G13" s="1" t="s">
+      <c r="G13" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="H13" s="1" t="s">
+      <c r="H13" s="13" t="s">
         <v>4</v>
       </c>
-      <c r="I13" s="1" t="s">
+      <c r="I13" s="13" t="s">
+        <v>30</v>
+      </c>
+      <c r="J13" s="11" t="s">
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B14" s="3" t="s">
+    <row r="14" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B14" s="14" t="s">
         <v>9</v>
       </c>
-      <c r="C14" t="s">
+      <c r="C14" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="D14" t="s">
+      <c r="D14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="E14" t="s">
+      <c r="E14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="F14" t="s">
+      <c r="F14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="G14" t="s">
+      <c r="G14" s="16" t="s">
         <v>11</v>
       </c>
-      <c r="H14" t="s">
+      <c r="H14" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="J14" s="4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="15" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B15" s="3"/>
-      <c r="C15" t="s">
+    <row r="15" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B15" s="17"/>
+      <c r="C15" s="18" t="s">
         <v>7</v>
       </c>
-      <c r="D15" t="s">
+      <c r="D15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="19" t="s">
         <v>14</v>
       </c>
-      <c r="F15" t="s">
+      <c r="F15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="G15" t="s">
+      <c r="G15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="H15" t="s">
+      <c r="H15" s="19" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="19" t="s">
+        <v>14</v>
+      </c>
+      <c r="J15" s="5" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="16" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B16" s="3"/>
-      <c r="C16" t="s">
+    <row r="16" spans="2:14" x14ac:dyDescent="0.25">
+      <c r="B16" s="17"/>
+      <c r="C16" s="18" t="s">
         <v>10</v>
       </c>
-      <c r="D16" t="s">
+      <c r="D16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="F16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="19" t="s">
+        <v>29</v>
+      </c>
+      <c r="H16" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="19" t="s">
+        <v>36</v>
+      </c>
+      <c r="J16" s="5" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B17" s="20"/>
+      <c r="C17" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="D17" s="22">
+        <v>2</v>
+      </c>
+      <c r="E17" s="22">
+        <v>5</v>
+      </c>
+      <c r="F17" s="22">
+        <v>1</v>
+      </c>
+      <c r="G17" s="22">
+        <v>2</v>
+      </c>
+      <c r="H17" s="22">
+        <v>2</v>
+      </c>
+      <c r="I17" s="22">
+        <v>36</v>
+      </c>
+      <c r="J17" s="6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B18" s="23" t="s">
         <v>16</v>
       </c>
-      <c r="E16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" t="s">
-        <v>16</v>
-      </c>
-      <c r="G16" t="s">
-        <v>31</v>
-      </c>
-      <c r="H16" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="17" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B17" s="3"/>
-      <c r="C17" t="s">
-        <v>8</v>
-      </c>
-      <c r="D17">
-        <v>2</v>
-      </c>
-      <c r="E17">
-        <v>5</v>
-      </c>
-      <c r="F17">
+      <c r="C18" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="E18" s="25">
         <v>1</v>
       </c>
-      <c r="G17">
-        <v>2</v>
-      </c>
-      <c r="H17">
-        <v>2</v>
-      </c>
-      <c r="I17">
+      <c r="F18" s="25" t="s">
+        <v>35</v>
+      </c>
+      <c r="G18" s="25">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B18" s="3" t="s">
+      <c r="H18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="I18" s="25" t="s">
+        <v>33</v>
+      </c>
+      <c r="J18" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="19" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B19" s="17"/>
+      <c r="C19" s="18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" t="s">
+      <c r="D19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F19" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G19" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="H19" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="I19" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B20" s="17"/>
+      <c r="C20" s="18" t="s">
         <v>18</v>
       </c>
-      <c r="D18" t="s">
-        <v>12</v>
-      </c>
-      <c r="E18" t="s">
-        <v>11</v>
-      </c>
-      <c r="F18" t="s">
-        <v>12</v>
-      </c>
-      <c r="G18" t="s">
-        <v>11</v>
-      </c>
-      <c r="H18" t="s">
-        <v>12</v>
-      </c>
-      <c r="I18" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="19" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B19" s="3"/>
-      <c r="C19" t="s">
+      <c r="D20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="F20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="G20" s="19" t="s">
+        <v>24</v>
+      </c>
+      <c r="H20" s="19" t="s">
+        <v>22</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>32</v>
+      </c>
+      <c r="J20" s="5" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B21" s="20"/>
+      <c r="C21" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="D21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E21" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F21" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="H21" s="27" t="s">
+        <v>21</v>
+      </c>
+      <c r="I21" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J21" s="6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="22" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B22" s="28" t="s">
+        <v>28</v>
+      </c>
+      <c r="C22" s="29"/>
+      <c r="D22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="E22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="F22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="G22" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="H22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="I22" s="30" t="s">
+        <v>22</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B23" s="23" t="s">
+        <v>23</v>
+      </c>
+      <c r="C23" s="24" t="s">
+        <v>20</v>
+      </c>
+      <c r="D23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="E23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="F23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="G23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="H23" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="I23" s="31" t="s">
+        <v>27</v>
+      </c>
+      <c r="J23" s="7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B24" s="17"/>
+      <c r="C24" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="E24" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="F24" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="G24" s="26" t="s">
+        <v>27</v>
+      </c>
+      <c r="H24" s="26" t="s">
+        <v>22</v>
+      </c>
+      <c r="I24" s="26" t="s">
+        <v>21</v>
+      </c>
+      <c r="J24" s="8" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.25">
+      <c r="B25" s="20"/>
+      <c r="C25" s="21" t="s">
         <v>26</v>
       </c>
-      <c r="F19" t="s">
-        <v>26</v>
-      </c>
-      <c r="G19" t="s">
-        <v>24</v>
-      </c>
-      <c r="H19" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="I19" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="20" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B20" s="3"/>
-      <c r="C20" t="s">
-        <v>20</v>
-      </c>
-      <c r="D20" t="s">
-        <v>26</v>
-      </c>
-      <c r="E20" t="s">
-        <v>26</v>
-      </c>
-      <c r="F20" t="s">
-        <v>26</v>
-      </c>
-      <c r="G20" t="s">
-        <v>26</v>
-      </c>
-      <c r="H20" t="s">
-        <v>24</v>
-      </c>
-      <c r="I20" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="21" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B21" s="3"/>
-      <c r="C21" t="s">
+      <c r="D25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="F25" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="G25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="H25" s="27" t="s">
         <v>21</v>
       </c>
-      <c r="D21" t="s">
-        <v>24</v>
-      </c>
-      <c r="E21" t="s">
-        <v>26</v>
-      </c>
-      <c r="F21" t="s">
-        <v>24</v>
-      </c>
-      <c r="G21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="H21" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I21" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="22" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>30</v>
-      </c>
-      <c r="D22" t="s">
-        <v>24</v>
-      </c>
-      <c r="E22" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" t="s">
-        <v>26</v>
-      </c>
-      <c r="G22" t="s">
-        <v>26</v>
-      </c>
-      <c r="H22" t="s">
-        <v>24</v>
-      </c>
-      <c r="I22" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="23" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B23" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C23" t="s">
-        <v>22</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="E23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H23" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I23" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="24" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B24" s="3"/>
-      <c r="C24" t="s">
-        <v>27</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="F24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B25" s="3"/>
-      <c r="C25" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" t="s">
-        <v>24</v>
-      </c>
-      <c r="E25" t="s">
-        <v>26</v>
-      </c>
-      <c r="F25" t="s">
-        <v>24</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="H25" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>23</v>
+      <c r="I25" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="J25" s="9" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="6">
     <mergeCell ref="B23:B25"/>
-    <mergeCell ref="B1:E1"/>
-    <mergeCell ref="F1:I1"/>
-    <mergeCell ref="K1:M1"/>
+    <mergeCell ref="B1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="L1:N1"/>
     <mergeCell ref="B14:B17"/>
     <mergeCell ref="B18:B21"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>